--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1205_INUM.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1205_INUM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3158F24-D9C6-47C0-BCF1-3C4F4A2BAA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F631C32C-364E-4018-A246-5B9629DCD48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="R5641114_GG0001_1915700_PDF (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956590_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1051,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45673</v>
+        <v>45721</v>
       </c>
       <c r="T1" s="2">
-        <v>0.57174768518518515</v>
+        <v>0.58826388888888892</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1161,13 +1161,13 @@
         <v>216</v>
       </c>
       <c r="M11">
-        <v>64.11</v>
+        <v>64.14</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
       <c r="R11">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1187,16 +1187,16 @@
         <v>506</v>
       </c>
       <c r="M12">
-        <v>77.3</v>
+        <v>77.319999999999993</v>
       </c>
       <c r="P12" t="s">
         <v>22</v>
       </c>
       <c r="R12">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="R13">
-        <v>1667</v>
+        <v>1726</v>
       </c>
       <c r="T13">
         <v>6</v>
@@ -1239,16 +1239,16 @@
         <v>-2248</v>
       </c>
       <c r="M14">
-        <v>-825.28</v>
+        <v>-825.29</v>
       </c>
       <c r="P14" t="s">
         <v>22</v>
       </c>
       <c r="R14">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1268,13 +1268,13 @@
         <v>486</v>
       </c>
       <c r="M15">
-        <v>41.6</v>
+        <v>41.59</v>
       </c>
       <c r="P15" t="s">
         <v>22</v>
       </c>
       <c r="R15">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="T15">
         <v>3</v>
@@ -1297,16 +1297,16 @@
         <v>3050</v>
       </c>
       <c r="M16">
-        <v>117.27</v>
+        <v>117.33</v>
       </c>
       <c r="P16" t="s">
         <v>22</v>
       </c>
       <c r="R16">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
         <v>33</v>
       </c>
       <c r="R17">
-        <v>1063</v>
+        <v>1122</v>
       </c>
       <c r="T17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>36</v>
       </c>
       <c r="R18">
-        <v>1366</v>
+        <v>1425</v>
       </c>
       <c r="T18">
         <v>6</v>
@@ -1366,16 +1366,16 @@
         <v>45636</v>
       </c>
       <c r="K19">
-        <v>203</v>
+        <v>399</v>
       </c>
       <c r="M19">
-        <v>123.54</v>
+        <v>242.83</v>
       </c>
       <c r="P19" t="s">
         <v>36</v>
       </c>
       <c r="R19">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>25</v>
       </c>
       <c r="R20">
-        <v>863</v>
+        <v>922</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -1424,7 +1424,7 @@
         <v>22</v>
       </c>
       <c r="R21">
-        <v>792</v>
+        <v>851</v>
       </c>
       <c r="T21">
         <v>5</v>
@@ -1453,7 +1453,7 @@
         <v>36</v>
       </c>
       <c r="R22">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="T22">
         <v>3</v>
@@ -1482,10 +1482,10 @@
         <v>36</v>
       </c>
       <c r="R23">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="R24">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -1534,13 +1534,13 @@
         <v>550</v>
       </c>
       <c r="M25">
-        <v>132.76</v>
+        <v>132.77000000000001</v>
       </c>
       <c r="P25" t="s">
         <v>22</v>
       </c>
       <c r="R25">
-        <v>1302</v>
+        <v>1361</v>
       </c>
       <c r="T25">
         <v>6</v>
@@ -1560,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="R26">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="T26">
         <v>2</v>
@@ -1589,10 +1589,10 @@
         <v>22</v>
       </c>
       <c r="R27">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>25</v>
       </c>
       <c r="R28">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="T28">
         <v>3</v>
@@ -1632,10 +1632,10 @@
         <v>36</v>
       </c>
       <c r="R29">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
